--- a/out/predict.xlsx
+++ b/out/predict.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Model</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>PMSE</t>
+  </si>
+  <si>
+    <t>Baseline Predictors (p = 31)</t>
   </si>
 </sst>
 </file>
@@ -73,7 +76,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +87,13 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -149,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -159,6 +169,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,7 +456,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:I2"/>
+      <selection activeCell="C6" sqref="C6:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,24 +546,82 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>57.024151063271503</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>43.017461511860297</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5">
+        <v>44.540327734719597</v>
+      </c>
+      <c r="E9" s="5">
+        <v>42.190512414678402</v>
+      </c>
+      <c r="F9" s="5">
+        <v>57.024151063271503</v>
+      </c>
+      <c r="G9" s="5">
+        <v>43.017461511860297</v>
+      </c>
+      <c r="H9" s="5">
+        <v>41.793839071689497</v>
+      </c>
+      <c r="I9" s="5">
+        <v>41.918202500604004</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -569,6 +640,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C7:I7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
